--- a/data/llm_generated_data.xlsx
+++ b/data/llm_generated_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamroy/Documents/Studies/Monash_31194990/PHD/Studies/Study_03/LLM_motion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109BB22-1ABE-2D40-BE6F-A40E47BD3B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC9DF1A-83DB-A044-ADC8-A8BF739EE1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6099" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6207" uniqueCount="76">
   <si>
     <t>A</t>
   </si>
@@ -236,12 +236,48 @@
   <si>
     <t>Datapoints</t>
   </si>
+  <si>
+    <t>RAND 01</t>
+  </si>
+  <si>
+    <t>RAND 00</t>
+  </si>
+  <si>
+    <t>RAND 02</t>
+  </si>
+  <si>
+    <t>RAND 03</t>
+  </si>
+  <si>
+    <t>RAND 04</t>
+  </si>
+  <si>
+    <t>RAND 05</t>
+  </si>
+  <si>
+    <t>RAND 06</t>
+  </si>
+  <si>
+    <t>RAND 07</t>
+  </si>
+  <si>
+    <t>RAND 08</t>
+  </si>
+  <si>
+    <t>RAND 09</t>
+  </si>
+  <si>
+    <t>RAND 10</t>
+  </si>
+  <si>
+    <t>RAND 11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,8 +339,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,8 +492,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -776,12 +867,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -969,11 +1150,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1000,7 +1177,7 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,10 +1189,76 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="25" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="26" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="27" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="25" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="26" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="27" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="26" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="26" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="28" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="28" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="28" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,9 +1266,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1044,47 +1284,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1532,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T54"/>
+  <dimension ref="A2:T76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="C63" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1544,7 +1744,7 @@
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="11" width="16.1640625" customWidth="1"/>
-    <col min="12" max="12" width="3.5" style="66" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="65" customWidth="1"/>
     <col min="13" max="20" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1555,16 +1755,16 @@
     <row r="7" spans="1:20" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="69" t="s">
+      <c r="O7" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="68" t="s">
+      <c r="P7" s="66" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1572,19 +1772,19 @@
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="72">
         <v>0.5</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="69">
         <v>0.2</v>
       </c>
-      <c r="O8" s="70" t="s">
+      <c r="O8" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="71">
+      <c r="P8" s="69">
         <v>0.2</v>
       </c>
     </row>
@@ -1592,19 +1792,19 @@
       <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="78">
         <v>80</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="73">
-        <v>0</v>
-      </c>
-      <c r="O9" s="72" t="s">
+      <c r="G9" s="71">
+        <v>0</v>
+      </c>
+      <c r="O9" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="73">
+      <c r="P9" s="71">
         <v>0</v>
       </c>
     </row>
@@ -1652,7 +1852,7 @@
       <c r="K11" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="75"/>
+      <c r="L11" s="73"/>
       <c r="M11" s="36" t="s">
         <v>23</v>
       </c>
@@ -1679,7 +1879,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="104" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1692,27 +1892,27 @@
         <f>'waiting for input GPT3.5'!P13</f>
         <v>80</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="8">
         <f>'waiting for input GPT3.5'!Q13</f>
         <v>80</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="8">
         <f>'waiting for input GPT3.5'!R13</f>
         <v>69</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="8">
         <f>'waiting for input GPT3.5'!S13</f>
         <v>65</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="8">
         <f>'waiting for input GPT3.5'!T13</f>
         <v>80</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="8">
         <f>'waiting for input GPT3.5'!U13</f>
         <v>80</v>
       </c>
-      <c r="J12" s="65">
+      <c r="J12" s="8">
         <f>'waiting for input GPT3.5'!V13</f>
         <v>14</v>
       </c>
@@ -1720,32 +1920,31 @@
         <f>'waiting for input GPT3.5'!W13</f>
         <v>13</v>
       </c>
-      <c r="L12" s="67"/>
       <c r="M12" s="38">
         <f>'waiting for input GPT4'!P13</f>
         <v>80</v>
       </c>
-      <c r="N12" s="65">
+      <c r="N12" s="8">
         <f>'waiting for input GPT4'!Q13</f>
         <v>0</v>
       </c>
-      <c r="O12" s="65">
+      <c r="O12" s="8">
         <f>'waiting for input GPT4'!R13</f>
         <v>0</v>
       </c>
-      <c r="P12" s="65">
+      <c r="P12" s="8">
         <f>'waiting for input GPT4'!S13</f>
         <v>80</v>
       </c>
-      <c r="Q12" s="65">
+      <c r="Q12" s="8">
         <f>'waiting for input GPT4'!T13</f>
         <v>62</v>
       </c>
-      <c r="R12" s="65">
+      <c r="R12" s="8">
         <f>'waiting for input GPT4'!U13</f>
         <v>80</v>
       </c>
-      <c r="S12" s="65">
+      <c r="S12" s="8">
         <f>'waiting for input GPT4'!V13</f>
         <v>62</v>
       </c>
@@ -1755,108 +1954,107 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="12"/>
       <c r="C13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="79">
         <f>'waiting for input GPT3.5'!P14</f>
         <v>1</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="80">
         <f>'waiting for input GPT3.5'!Q14</f>
         <v>1</v>
       </c>
-      <c r="F13" s="82">
+      <c r="F13" s="80">
         <f>'waiting for input GPT3.5'!R14</f>
         <v>0.86250000000000004</v>
       </c>
-      <c r="G13" s="82">
+      <c r="G13" s="80">
         <f>'waiting for input GPT3.5'!S14</f>
         <v>0.8125</v>
       </c>
-      <c r="H13" s="82">
+      <c r="H13" s="80">
         <f>'waiting for input GPT3.5'!T14</f>
         <v>1</v>
       </c>
-      <c r="I13" s="82">
+      <c r="I13" s="80">
         <f>'waiting for input GPT3.5'!U14</f>
         <v>1</v>
       </c>
-      <c r="J13" s="82">
+      <c r="J13" s="80">
         <f>'waiting for input GPT3.5'!V14</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="81">
         <f>'waiting for input GPT3.5'!W14</f>
         <v>0.16250000000000001</v>
       </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="81">
+      <c r="M13" s="79">
         <f>'waiting for input GPT4'!P14</f>
         <v>1</v>
       </c>
-      <c r="N13" s="82">
+      <c r="N13" s="80">
         <f>'waiting for input GPT4'!Q14</f>
         <v>0</v>
       </c>
-      <c r="O13" s="82">
+      <c r="O13" s="80">
         <f>'waiting for input GPT4'!R14</f>
         <v>0</v>
       </c>
-      <c r="P13" s="82">
+      <c r="P13" s="80">
         <f>'waiting for input GPT4'!S14</f>
         <v>1</v>
       </c>
-      <c r="Q13" s="82">
+      <c r="Q13" s="80">
         <f>'waiting for input GPT4'!T14</f>
         <v>0.77500000000000002</v>
       </c>
-      <c r="R13" s="82">
+      <c r="R13" s="80">
         <f>'waiting for input GPT4'!U14</f>
         <v>1</v>
       </c>
-      <c r="S13" s="82">
+      <c r="S13" s="80">
         <f>'waiting for input GPT4'!V14</f>
         <v>0.77500000000000002</v>
       </c>
-      <c r="T13" s="83">
+      <c r="T13" s="81">
         <f>'waiting for input GPT4'!W14</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="12"/>
       <c r="C14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="77" t="str">
+      <c r="D14" s="75" t="str">
         <f>'waiting for input GPT3.5'!P15</f>
         <v>neutral</v>
       </c>
-      <c r="E14" s="78" t="str">
+      <c r="E14" s="76" t="str">
         <f>'waiting for input GPT3.5'!Q15</f>
         <v>neutral</v>
       </c>
-      <c r="F14" s="78" t="str">
+      <c r="F14" s="76" t="str">
         <f>'waiting for input GPT3.5'!R15</f>
         <v>neutral</v>
       </c>
-      <c r="G14" s="78" t="str">
+      <c r="G14" s="76" t="str">
         <f>'waiting for input GPT3.5'!S15</f>
         <v>neutral</v>
       </c>
-      <c r="H14" s="78" t="str">
+      <c r="H14" s="76" t="str">
         <f>'waiting for input GPT3.5'!T15</f>
         <v>user</v>
       </c>
-      <c r="I14" s="78" t="str">
+      <c r="I14" s="76" t="str">
         <f>'waiting for input GPT3.5'!U15</f>
         <v>short</v>
       </c>
-      <c r="J14" s="65" t="str">
+      <c r="J14" s="8" t="str">
         <f>'waiting for input GPT3.5'!V15</f>
         <v>medium</v>
       </c>
@@ -1864,42 +2062,41 @@
         <f>'waiting for input GPT3.5'!W15</f>
         <v>smooth</v>
       </c>
-      <c r="L14" s="67"/>
-      <c r="M14" s="77" t="str">
+      <c r="M14" s="75" t="str">
         <f>'waiting for input GPT4'!P15</f>
         <v>neutral</v>
       </c>
-      <c r="N14" s="65" t="str">
+      <c r="N14" s="8" t="str">
         <f>'waiting for input GPT4'!Q15</f>
         <v>backward</v>
       </c>
-      <c r="O14" s="65" t="str">
+      <c r="O14" s="8" t="str">
         <f>'waiting for input GPT4'!R15</f>
         <v>left</v>
       </c>
-      <c r="P14" s="78" t="str">
+      <c r="P14" s="76" t="str">
         <f>'waiting for input GPT4'!S15</f>
         <v>neutral</v>
       </c>
-      <c r="Q14" s="78" t="str">
+      <c r="Q14" s="76" t="str">
         <f>'waiting for input GPT4'!T15</f>
         <v>user</v>
       </c>
-      <c r="R14" s="78" t="str">
+      <c r="R14" s="76" t="str">
         <f>'waiting for input GPT4'!U15</f>
         <v>long</v>
       </c>
-      <c r="S14" s="78" t="str">
+      <c r="S14" s="76" t="str">
         <f>'waiting for input GPT4'!V15</f>
         <v>slow</v>
       </c>
-      <c r="T14" s="79" t="str">
+      <c r="T14" s="77" t="str">
         <f>'waiting for input GPT4'!W15</f>
         <v>smooth</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="14"/>
       <c r="C15" s="22" t="s">
         <v>36</v>
@@ -1908,27 +2105,27 @@
         <f>'waiting for input GPT3.5'!P16</f>
         <v>27</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="8">
         <f>'waiting for input GPT3.5'!Q16</f>
         <v>0</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="8">
         <f>'waiting for input GPT3.5'!R16</f>
         <v>0</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="8">
         <f>'waiting for input GPT3.5'!S16</f>
         <v>0</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="8">
         <f>'waiting for input GPT3.5'!T16</f>
         <v>80</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="8">
         <f>'waiting for input GPT3.5'!U16</f>
         <v>73</v>
       </c>
-      <c r="J15" s="65">
+      <c r="J15" s="8">
         <f>'waiting for input GPT3.5'!V16</f>
         <v>1</v>
       </c>
@@ -1936,32 +2133,31 @@
         <f>'waiting for input GPT3.5'!W16</f>
         <v>9</v>
       </c>
-      <c r="L15" s="67"/>
       <c r="M15" s="38">
         <f>'waiting for input GPT4'!P16</f>
         <v>0</v>
       </c>
-      <c r="N15" s="65">
+      <c r="N15" s="8">
         <f>'waiting for input GPT4'!Q16</f>
         <v>0</v>
       </c>
-      <c r="O15" s="65">
+      <c r="O15" s="8">
         <f>'waiting for input GPT4'!R16</f>
         <v>0</v>
       </c>
-      <c r="P15" s="65">
+      <c r="P15" s="8">
         <f>'waiting for input GPT4'!S16</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="65">
+      <c r="Q15" s="8">
         <f>'waiting for input GPT4'!T16</f>
         <v>62</v>
       </c>
-      <c r="R15" s="65">
+      <c r="R15" s="8">
         <f>'waiting for input GPT4'!U16</f>
         <v>0</v>
       </c>
-      <c r="S15" s="65">
+      <c r="S15" s="8">
         <f>'waiting for input GPT4'!V16</f>
         <v>62</v>
       </c>
@@ -1971,7 +2167,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="14"/>
       <c r="C16" s="21" t="s">
         <v>37</v>
@@ -1980,27 +2176,27 @@
         <f>'waiting for input GPT3.5'!P17</f>
         <v>53</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="8">
         <f>'waiting for input GPT3.5'!Q17</f>
         <v>80</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="8">
         <f>'waiting for input GPT3.5'!R17</f>
         <v>69</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="8">
         <f>'waiting for input GPT3.5'!S17</f>
         <v>65</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="8">
         <f>'waiting for input GPT3.5'!T17</f>
         <v>0</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="8">
         <f>'waiting for input GPT3.5'!U17</f>
         <v>7</v>
       </c>
-      <c r="J16" s="65">
+      <c r="J16" s="8">
         <f>'waiting for input GPT3.5'!V17</f>
         <v>13</v>
       </c>
@@ -2008,32 +2204,31 @@
         <f>'waiting for input GPT3.5'!W17</f>
         <v>4</v>
       </c>
-      <c r="L16" s="67"/>
       <c r="M16" s="38">
         <f>'waiting for input GPT4'!P17</f>
         <v>80</v>
       </c>
-      <c r="N16" s="65">
+      <c r="N16" s="8">
         <f>'waiting for input GPT4'!Q17</f>
         <v>0</v>
       </c>
-      <c r="O16" s="65">
+      <c r="O16" s="8">
         <f>'waiting for input GPT4'!R17</f>
         <v>0</v>
       </c>
-      <c r="P16" s="65">
+      <c r="P16" s="8">
         <f>'waiting for input GPT4'!S17</f>
         <v>80</v>
       </c>
-      <c r="Q16" s="65">
+      <c r="Q16" s="8">
         <f>'waiting for input GPT4'!T17</f>
         <v>0</v>
       </c>
-      <c r="R16" s="65">
+      <c r="R16" s="8">
         <f>'waiting for input GPT4'!U17</f>
         <v>0</v>
       </c>
-      <c r="S16" s="65">
+      <c r="S16" s="8">
         <f>'waiting for input GPT4'!V17</f>
         <v>0</v>
       </c>
@@ -2043,7 +2238,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="14"/>
       <c r="C17" s="23" t="s">
         <v>38</v>
@@ -2080,7 +2275,6 @@
         <f>'waiting for input GPT3.5'!W18</f>
         <v>0</v>
       </c>
-      <c r="L17" s="67"/>
       <c r="M17" s="40">
         <f>'waiting for input GPT4'!P18</f>
         <v>0</v>
@@ -2115,29 +2309,28 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="39"/>
-      <c r="L18" s="67"/>
       <c r="M18" s="38"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
       <c r="T18" s="39"/>
     </row>
     <row r="19" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="106" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -2178,7 +2371,7 @@
         <f>'analyzing object GPT3.5'!W13</f>
         <v>35</v>
       </c>
-      <c r="L19" s="75"/>
+      <c r="L19" s="73"/>
       <c r="M19" s="36">
         <f>'analyzing object GPT4'!P13</f>
         <v>0</v>
@@ -2213,108 +2406,107 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="12"/>
       <c r="C20" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="79">
         <f>'analyzing object GPT3.5'!P14</f>
         <v>0.91249999999999998</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="80">
         <f>'analyzing object GPT3.5'!Q14</f>
         <v>0.2</v>
       </c>
-      <c r="F20" s="82">
+      <c r="F20" s="80">
         <f>'analyzing object GPT3.5'!R14</f>
         <v>1</v>
       </c>
-      <c r="G20" s="82">
+      <c r="G20" s="80">
         <f>'analyzing object GPT3.5'!S14</f>
         <v>0.3125</v>
       </c>
-      <c r="H20" s="82">
+      <c r="H20" s="80">
         <f>'analyzing object GPT3.5'!T14</f>
         <v>1</v>
       </c>
-      <c r="I20" s="82">
+      <c r="I20" s="80">
         <f>'analyzing object GPT3.5'!U14</f>
         <v>0.97499999999999998</v>
       </c>
-      <c r="J20" s="82">
+      <c r="J20" s="80">
         <f>'analyzing object GPT3.5'!V14</f>
         <v>0.75</v>
       </c>
-      <c r="K20" s="83">
+      <c r="K20" s="81">
         <f>'analyzing object GPT3.5'!W14</f>
         <v>0.4375</v>
       </c>
-      <c r="L20" s="67"/>
-      <c r="M20" s="81">
+      <c r="M20" s="79">
         <f>'analyzing object GPT4'!P14</f>
         <v>0</v>
       </c>
-      <c r="N20" s="82">
+      <c r="N20" s="80">
         <f>'analyzing object GPT4'!Q14</f>
         <v>0</v>
       </c>
-      <c r="O20" s="82">
+      <c r="O20" s="80">
         <f>'analyzing object GPT4'!R14</f>
         <v>1</v>
       </c>
-      <c r="P20" s="82">
+      <c r="P20" s="80">
         <f>'analyzing object GPT4'!S14</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="82">
+      <c r="Q20" s="80">
         <f>'analyzing object GPT4'!T14</f>
         <v>1</v>
       </c>
-      <c r="R20" s="82">
+      <c r="R20" s="80">
         <f>'analyzing object GPT4'!U14</f>
         <v>1</v>
       </c>
-      <c r="S20" s="82">
+      <c r="S20" s="80">
         <f>'analyzing object GPT4'!V14</f>
         <v>0</v>
       </c>
-      <c r="T20" s="83">
+      <c r="T20" s="81">
         <f>'analyzing object GPT4'!W14</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
+      <c r="A21" s="106"/>
       <c r="B21" s="12"/>
       <c r="C21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="77" t="str">
+      <c r="D21" s="75" t="str">
         <f>'analyzing object GPT3.5'!P15</f>
         <v>left</v>
       </c>
-      <c r="E21" s="65" t="str">
+      <c r="E21" s="8" t="str">
         <f>'analyzing object GPT3.5'!Q15</f>
         <v>neutral</v>
       </c>
-      <c r="F21" s="78" t="str">
+      <c r="F21" s="76" t="str">
         <f>'analyzing object GPT3.5'!R15</f>
         <v>neutral</v>
       </c>
-      <c r="G21" s="65" t="str">
+      <c r="G21" s="8" t="str">
         <f>'analyzing object GPT3.5'!S15</f>
         <v>neutral</v>
       </c>
-      <c r="H21" s="78" t="str">
+      <c r="H21" s="76" t="str">
         <f>'analyzing object GPT3.5'!T15</f>
         <v>object</v>
       </c>
-      <c r="I21" s="78" t="str">
+      <c r="I21" s="76" t="str">
         <f>'analyzing object GPT3.5'!U15</f>
         <v>long</v>
       </c>
-      <c r="J21" s="78" t="str">
+      <c r="J21" s="76" t="str">
         <f>'analyzing object GPT3.5'!V15</f>
         <v>medium</v>
       </c>
@@ -2322,42 +2514,41 @@
         <f>'analyzing object GPT3.5'!W15</f>
         <v>smooth</v>
       </c>
-      <c r="L21" s="67"/>
       <c r="M21" s="38" t="str">
         <f>'analyzing object GPT4'!P15</f>
         <v>left</v>
       </c>
-      <c r="N21" s="65" t="str">
+      <c r="N21" s="8" t="str">
         <f>'analyzing object GPT4'!Q15</f>
         <v>backward</v>
       </c>
-      <c r="O21" s="78" t="str">
+      <c r="O21" s="76" t="str">
         <f>'analyzing object GPT4'!R15</f>
         <v>neutral</v>
       </c>
-      <c r="P21" s="78" t="str">
+      <c r="P21" s="76" t="str">
         <f>'analyzing object GPT4'!S15</f>
         <v>low</v>
       </c>
-      <c r="Q21" s="78" t="str">
+      <c r="Q21" s="76" t="str">
         <f>'analyzing object GPT4'!T15</f>
         <v>object</v>
       </c>
-      <c r="R21" s="78" t="str">
+      <c r="R21" s="76" t="str">
         <f>'analyzing object GPT4'!U15</f>
         <v>long</v>
       </c>
-      <c r="S21" s="65" t="str">
+      <c r="S21" s="8" t="str">
         <f>'analyzing object GPT4'!V15</f>
         <v>slow</v>
       </c>
-      <c r="T21" s="79" t="str">
+      <c r="T21" s="77" t="str">
         <f>'analyzing object GPT4'!W15</f>
         <v>smooth</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="14"/>
       <c r="C22" s="27" t="s">
         <v>36</v>
@@ -2366,27 +2557,27 @@
         <f>'analyzing object GPT3.5'!P16</f>
         <v>38</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="8">
         <f>'analyzing object GPT3.5'!Q16</f>
         <v>4</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="8">
         <f>'analyzing object GPT3.5'!R16</f>
         <v>0</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="8">
         <f>'analyzing object GPT3.5'!S16</f>
         <v>2</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="8">
         <f>'analyzing object GPT3.5'!T16</f>
         <v>0</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I22" s="8">
         <f>'analyzing object GPT3.5'!U16</f>
         <v>13</v>
       </c>
-      <c r="J22" s="65">
+      <c r="J22" s="8">
         <f>'analyzing object GPT3.5'!V16</f>
         <v>14</v>
       </c>
@@ -2394,32 +2585,31 @@
         <f>'analyzing object GPT3.5'!W16</f>
         <v>35</v>
       </c>
-      <c r="L22" s="67"/>
       <c r="M22" s="38">
         <f>'analyzing object GPT4'!P16</f>
         <v>0</v>
       </c>
-      <c r="N22" s="65">
+      <c r="N22" s="8">
         <f>'analyzing object GPT4'!Q16</f>
         <v>0</v>
       </c>
-      <c r="O22" s="65">
+      <c r="O22" s="8">
         <f>'analyzing object GPT4'!R16</f>
         <v>2</v>
       </c>
-      <c r="P22" s="65">
+      <c r="P22" s="8">
         <f>'analyzing object GPT4'!S16</f>
         <v>80</v>
       </c>
-      <c r="Q22" s="65">
+      <c r="Q22" s="8">
         <f>'analyzing object GPT4'!T16</f>
         <v>0</v>
       </c>
-      <c r="R22" s="65">
+      <c r="R22" s="8">
         <f>'analyzing object GPT4'!U16</f>
         <v>0</v>
       </c>
-      <c r="S22" s="65">
+      <c r="S22" s="8">
         <f>'analyzing object GPT4'!V16</f>
         <v>0</v>
       </c>
@@ -2429,7 +2619,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="14"/>
       <c r="C23" s="25" t="s">
         <v>37</v>
@@ -2438,27 +2628,27 @@
         <f>'analyzing object GPT3.5'!P17</f>
         <v>23</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="8">
         <f>'analyzing object GPT3.5'!Q17</f>
         <v>10</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="8">
         <f>'analyzing object GPT3.5'!R17</f>
         <v>78</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="8">
         <f>'analyzing object GPT3.5'!S17</f>
         <v>16</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="8">
         <f>'analyzing object GPT3.5'!T17</f>
         <v>80</v>
       </c>
-      <c r="I23" s="65">
+      <c r="I23" s="8">
         <f>'analyzing object GPT3.5'!U17</f>
         <v>24</v>
       </c>
-      <c r="J23" s="65">
+      <c r="J23" s="8">
         <f>'analyzing object GPT3.5'!V17</f>
         <v>46</v>
       </c>
@@ -2466,32 +2656,31 @@
         <f>'analyzing object GPT3.5'!W17</f>
         <v>0</v>
       </c>
-      <c r="L23" s="67"/>
       <c r="M23" s="38">
         <f>'analyzing object GPT4'!P17</f>
         <v>0</v>
       </c>
-      <c r="N23" s="65">
+      <c r="N23" s="8">
         <f>'analyzing object GPT4'!Q17</f>
         <v>0</v>
       </c>
-      <c r="O23" s="65">
+      <c r="O23" s="8">
         <f>'analyzing object GPT4'!R17</f>
         <v>78</v>
       </c>
-      <c r="P23" s="65">
+      <c r="P23" s="8">
         <f>'analyzing object GPT4'!S17</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="65">
+      <c r="Q23" s="8">
         <f>'analyzing object GPT4'!T17</f>
         <v>80</v>
       </c>
-      <c r="R23" s="65">
+      <c r="R23" s="8">
         <f>'analyzing object GPT4'!U17</f>
         <v>7</v>
       </c>
-      <c r="S23" s="65">
+      <c r="S23" s="8">
         <f>'analyzing object GPT4'!V17</f>
         <v>0</v>
       </c>
@@ -2501,7 +2690,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="14"/>
       <c r="C24" s="26" t="s">
         <v>38</v>
@@ -2538,7 +2727,7 @@
         <f>'analyzing object GPT3.5'!W18</f>
         <v>0</v>
       </c>
-      <c r="L24" s="76"/>
+      <c r="L24" s="74"/>
       <c r="M24" s="40">
         <f>'analyzing object GPT4'!P18</f>
         <v>0</v>
@@ -2573,29 +2762,28 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="38"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="39"/>
-      <c r="L25" s="67"/>
       <c r="M25" s="38"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
       <c r="T25" s="39"/>
     </row>
     <row r="26" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="107" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -2636,7 +2824,6 @@
         <f>'found object GPT3.5'!W13</f>
         <v>14</v>
       </c>
-      <c r="L26" s="67"/>
       <c r="M26" s="36">
         <f>'found object GPT4'!P13</f>
         <v>0</v>
@@ -2671,79 +2858,78 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="88"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="12"/>
       <c r="C27" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="79">
         <f>'found object GPT3.5'!P14</f>
         <v>0.35</v>
       </c>
-      <c r="E27" s="82">
+      <c r="E27" s="80">
         <f>'found object GPT3.5'!Q14</f>
         <v>0.97499999999999998</v>
       </c>
-      <c r="F27" s="82">
+      <c r="F27" s="80">
         <f>'found object GPT3.5'!R14</f>
         <v>0.91249999999999998</v>
       </c>
-      <c r="G27" s="82">
+      <c r="G27" s="80">
         <f>'found object GPT3.5'!S14</f>
         <v>0.85</v>
       </c>
-      <c r="H27" s="82">
+      <c r="H27" s="80">
         <f>'found object GPT3.5'!T14</f>
         <v>0.85</v>
       </c>
-      <c r="I27" s="82">
+      <c r="I27" s="80">
         <f>'found object GPT3.5'!U14</f>
         <v>0.57499999999999996</v>
       </c>
-      <c r="J27" s="82">
+      <c r="J27" s="80">
         <f>'found object GPT3.5'!V14</f>
         <v>0.3125</v>
       </c>
-      <c r="K27" s="83">
+      <c r="K27" s="81">
         <f>'found object GPT3.5'!W14</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="L27" s="67"/>
-      <c r="M27" s="81">
+      <c r="M27" s="79">
         <f>'found object GPT4'!P14</f>
         <v>0</v>
       </c>
-      <c r="N27" s="82">
+      <c r="N27" s="80">
         <f>'found object GPT4'!Q14</f>
         <v>1</v>
       </c>
-      <c r="O27" s="82">
+      <c r="O27" s="80">
         <f>'found object GPT4'!R14</f>
         <v>1</v>
       </c>
-      <c r="P27" s="82">
+      <c r="P27" s="80">
         <f>'found object GPT4'!S14</f>
         <v>1</v>
       </c>
-      <c r="Q27" s="82">
+      <c r="Q27" s="80">
         <f>'found object GPT4'!T14</f>
         <v>1</v>
       </c>
-      <c r="R27" s="82">
+      <c r="R27" s="80">
         <f>'found object GPT4'!U14</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="S27" s="82">
+      <c r="S27" s="80">
         <f>'found object GPT4'!V14</f>
         <v>0.98750000000000004</v>
       </c>
-      <c r="T27" s="83">
+      <c r="T27" s="81">
         <f>'found object GPT4'!W14</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="12"/>
       <c r="C28" s="30" t="s">
         <v>35</v>
@@ -2752,27 +2938,27 @@
         <f>'found object GPT3.5'!P15</f>
         <v>left</v>
       </c>
-      <c r="E28" s="78" t="str">
+      <c r="E28" s="76" t="str">
         <f>'found object GPT3.5'!Q15</f>
         <v>backward</v>
       </c>
-      <c r="F28" s="78" t="str">
+      <c r="F28" s="76" t="str">
         <f>'found object GPT3.5'!R15</f>
         <v>neutral</v>
       </c>
-      <c r="G28" s="78" t="str">
+      <c r="G28" s="76" t="str">
         <f>'found object GPT3.5'!S15</f>
         <v>high</v>
       </c>
-      <c r="H28" s="78" t="str">
+      <c r="H28" s="76" t="str">
         <f>'found object GPT3.5'!T15</f>
         <v>object</v>
       </c>
-      <c r="I28" s="78" t="str">
+      <c r="I28" s="76" t="str">
         <f>'found object GPT3.5'!U15</f>
         <v>short</v>
       </c>
-      <c r="J28" s="65" t="str">
+      <c r="J28" s="8" t="str">
         <f>'found object GPT3.5'!V15</f>
         <v>fast</v>
       </c>
@@ -2780,42 +2966,41 @@
         <f>'found object GPT3.5'!W15</f>
         <v>smooth</v>
       </c>
-      <c r="L28" s="67"/>
       <c r="M28" s="38" t="str">
         <f>'found object GPT4'!P15</f>
         <v>left</v>
       </c>
-      <c r="N28" s="78" t="str">
+      <c r="N28" s="76" t="str">
         <f>'found object GPT4'!Q15</f>
         <v>forward</v>
       </c>
-      <c r="O28" s="78" t="str">
+      <c r="O28" s="76" t="str">
         <f>'found object GPT4'!R15</f>
         <v>neutral</v>
       </c>
-      <c r="P28" s="78" t="str">
+      <c r="P28" s="76" t="str">
         <f>'found object GPT4'!S15</f>
         <v>low</v>
       </c>
-      <c r="Q28" s="78" t="str">
+      <c r="Q28" s="76" t="str">
         <f>'found object GPT4'!T15</f>
         <v>object</v>
       </c>
-      <c r="R28" s="65" t="str">
+      <c r="R28" s="8" t="str">
         <f>'found object GPT4'!U15</f>
         <v>medium</v>
       </c>
-      <c r="S28" s="78" t="str">
+      <c r="S28" s="76" t="str">
         <f>'found object GPT4'!V15</f>
         <v>slow</v>
       </c>
-      <c r="T28" s="79" t="str">
+      <c r="T28" s="77" t="str">
         <f>'found object GPT4'!W15</f>
         <v>smooth</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="14"/>
       <c r="C29" s="31" t="s">
         <v>36</v>
@@ -2824,27 +3009,27 @@
         <f>'found object GPT3.5'!P16</f>
         <v>16</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="8">
         <f>'found object GPT3.5'!Q16</f>
         <v>44</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="8">
         <f>'found object GPT3.5'!R16</f>
         <v>2</v>
       </c>
-      <c r="G29" s="65">
+      <c r="G29" s="8">
         <f>'found object GPT3.5'!S16</f>
         <v>10</v>
       </c>
-      <c r="H29" s="65">
+      <c r="H29" s="8">
         <f>'found object GPT3.5'!T16</f>
         <v>5</v>
       </c>
-      <c r="I29" s="65">
+      <c r="I29" s="8">
         <f>'found object GPT3.5'!U16</f>
         <v>20</v>
       </c>
-      <c r="J29" s="65">
+      <c r="J29" s="8">
         <f>'found object GPT3.5'!V16</f>
         <v>8</v>
       </c>
@@ -2852,32 +3037,31 @@
         <f>'found object GPT3.5'!W16</f>
         <v>14</v>
       </c>
-      <c r="L29" s="67"/>
       <c r="M29" s="38">
         <f>'found object GPT4'!P16</f>
         <v>0</v>
       </c>
-      <c r="N29" s="65">
+      <c r="N29" s="8">
         <f>'found object GPT4'!Q16</f>
         <v>0</v>
       </c>
-      <c r="O29" s="65">
+      <c r="O29" s="8">
         <f>'found object GPT4'!R16</f>
         <v>0</v>
       </c>
-      <c r="P29" s="65">
+      <c r="P29" s="8">
         <f>'found object GPT4'!S16</f>
         <v>80</v>
       </c>
-      <c r="Q29" s="65">
+      <c r="Q29" s="8">
         <f>'found object GPT4'!T16</f>
         <v>0</v>
       </c>
-      <c r="R29" s="65">
+      <c r="R29" s="8">
         <f>'found object GPT4'!U16</f>
         <v>0</v>
       </c>
-      <c r="S29" s="65">
+      <c r="S29" s="8">
         <f>'found object GPT4'!V16</f>
         <v>79</v>
       </c>
@@ -2887,7 +3071,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="14"/>
       <c r="C30" s="29" t="s">
         <v>37</v>
@@ -2896,27 +3080,27 @@
         <f>'found object GPT3.5'!P17</f>
         <v>7</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="8">
         <f>'found object GPT3.5'!Q17</f>
         <v>23</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="8">
         <f>'found object GPT3.5'!R17</f>
         <v>61</v>
       </c>
-      <c r="G30" s="65">
+      <c r="G30" s="8">
         <f>'found object GPT3.5'!S17</f>
         <v>13</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="8">
         <f>'found object GPT3.5'!T17</f>
         <v>63</v>
       </c>
-      <c r="I30" s="65">
+      <c r="I30" s="8">
         <f>'found object GPT3.5'!U17</f>
         <v>12</v>
       </c>
-      <c r="J30" s="65">
+      <c r="J30" s="8">
         <f>'found object GPT3.5'!V17</f>
         <v>7</v>
       </c>
@@ -2924,32 +3108,31 @@
         <f>'found object GPT3.5'!W17</f>
         <v>0</v>
       </c>
-      <c r="L30" s="67"/>
       <c r="M30" s="38">
         <f>'found object GPT4'!P17</f>
         <v>0</v>
       </c>
-      <c r="N30" s="65">
+      <c r="N30" s="8">
         <f>'found object GPT4'!Q17</f>
         <v>0</v>
       </c>
-      <c r="O30" s="65">
+      <c r="O30" s="8">
         <f>'found object GPT4'!R17</f>
         <v>80</v>
       </c>
-      <c r="P30" s="65">
+      <c r="P30" s="8">
         <f>'found object GPT4'!S17</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="65">
+      <c r="Q30" s="8">
         <f>'found object GPT4'!T17</f>
         <v>80</v>
       </c>
-      <c r="R30" s="65">
+      <c r="R30" s="8">
         <f>'found object GPT4'!U17</f>
         <v>1</v>
       </c>
-      <c r="S30" s="65">
+      <c r="S30" s="8">
         <f>'found object GPT4'!V17</f>
         <v>0</v>
       </c>
@@ -2959,7 +3142,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="14"/>
       <c r="C31" s="30" t="s">
         <v>38</v>
@@ -2996,7 +3179,6 @@
         <f>'found object GPT3.5'!W18</f>
         <v>0</v>
       </c>
-      <c r="L31" s="67"/>
       <c r="M31" s="40">
         <f>'found object GPT4'!P18</f>
         <v>0</v>
@@ -3031,29 +3213,28 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
       <c r="K32" s="39"/>
-      <c r="L32" s="67"/>
       <c r="M32" s="38"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
       <c r="T32" s="39"/>
     </row>
     <row r="33" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="108" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -3094,7 +3275,6 @@
         <f>'needs help GPT3.5'!W13</f>
         <v>43</v>
       </c>
-      <c r="L33" s="67"/>
       <c r="M33" s="36">
         <f>'needs help GPT4'!P13</f>
         <v>80</v>
@@ -3129,79 +3309,78 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="12"/>
       <c r="C34" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="81">
+      <c r="D34" s="79">
         <f>'needs help GPT3.5'!P14</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E34" s="82">
+      <c r="E34" s="80">
         <f>'needs help GPT3.5'!Q14</f>
         <v>1</v>
       </c>
-      <c r="F34" s="82">
+      <c r="F34" s="80">
         <f>'needs help GPT3.5'!R14</f>
         <v>1</v>
       </c>
-      <c r="G34" s="82">
+      <c r="G34" s="80">
         <f>'needs help GPT3.5'!S14</f>
         <v>0.95</v>
       </c>
-      <c r="H34" s="82">
+      <c r="H34" s="80">
         <f>'needs help GPT3.5'!T14</f>
         <v>0.98750000000000004</v>
       </c>
-      <c r="I34" s="82">
+      <c r="I34" s="80">
         <f>'needs help GPT3.5'!U14</f>
         <v>1</v>
       </c>
-      <c r="J34" s="82">
+      <c r="J34" s="80">
         <f>'needs help GPT3.5'!V14</f>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="K34" s="83">
+      <c r="K34" s="81">
         <f>'needs help GPT3.5'!W14</f>
         <v>0.53749999999999998</v>
       </c>
-      <c r="L34" s="67"/>
-      <c r="M34" s="81">
+      <c r="M34" s="79">
         <f>'needs help GPT4'!P14</f>
         <v>1</v>
       </c>
-      <c r="N34" s="82">
+      <c r="N34" s="80">
         <f>'needs help GPT4'!Q14</f>
         <v>1</v>
       </c>
-      <c r="O34" s="82">
+      <c r="O34" s="80">
         <f>'needs help GPT4'!R14</f>
         <v>0</v>
       </c>
-      <c r="P34" s="82">
+      <c r="P34" s="80">
         <f>'needs help GPT4'!S14</f>
         <v>1</v>
       </c>
-      <c r="Q34" s="82">
+      <c r="Q34" s="80">
         <f>'needs help GPT4'!T14</f>
         <v>0.71250000000000002</v>
       </c>
-      <c r="R34" s="82">
+      <c r="R34" s="80">
         <f>'needs help GPT4'!U14</f>
         <v>1</v>
       </c>
-      <c r="S34" s="82">
+      <c r="S34" s="80">
         <f>'needs help GPT4'!V14</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="T34" s="83">
+      <c r="T34" s="81">
         <f>'needs help GPT4'!W14</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="89"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="12"/>
       <c r="C35" s="33" t="s">
         <v>35</v>
@@ -3210,70 +3389,69 @@
         <f>'needs help GPT3.5'!P15</f>
         <v>left</v>
       </c>
-      <c r="E35" s="78" t="str">
+      <c r="E35" s="76" t="str">
         <f>'needs help GPT3.5'!Q15</f>
         <v>backward</v>
       </c>
-      <c r="F35" s="78" t="str">
+      <c r="F35" s="76" t="str">
         <f>'needs help GPT3.5'!R15</f>
         <v>neutral</v>
       </c>
-      <c r="G35" s="78" t="str">
+      <c r="G35" s="76" t="str">
         <f>'needs help GPT3.5'!S15</f>
         <v>low</v>
       </c>
-      <c r="H35" s="78" t="str">
+      <c r="H35" s="76" t="str">
         <f>'needs help GPT3.5'!T15</f>
         <v>user</v>
       </c>
-      <c r="I35" s="78" t="str">
+      <c r="I35" s="76" t="str">
         <f>'needs help GPT3.5'!U15</f>
         <v>long</v>
       </c>
-      <c r="J35" s="65" t="str">
+      <c r="J35" s="8" t="str">
         <f>'needs help GPT3.5'!V15</f>
         <v>slow</v>
       </c>
-      <c r="K35" s="79" t="str">
+      <c r="K35" s="77" t="str">
         <f>'needs help GPT3.5'!W15</f>
         <v>shaky</v>
       </c>
-      <c r="L35" s="67"/>
-      <c r="M35" s="77" t="str">
+      <c r="M35" s="75" t="str">
         <f>'needs help GPT4'!P15</f>
         <v>left</v>
       </c>
-      <c r="N35" s="78" t="str">
+      <c r="N35" s="76" t="str">
         <f>'needs help GPT4'!Q15</f>
         <v>neutral</v>
       </c>
-      <c r="O35" s="65" t="str">
+      <c r="O35" s="8" t="str">
         <f>'needs help GPT4'!R15</f>
         <v>left</v>
       </c>
-      <c r="P35" s="78" t="str">
+      <c r="P35" s="76" t="str">
         <f>'needs help GPT4'!S15</f>
         <v>low</v>
       </c>
-      <c r="Q35" s="78" t="str">
+      <c r="Q35" s="76" t="str">
         <f>'needs help GPT4'!T15</f>
         <v>user</v>
       </c>
-      <c r="R35" s="78" t="str">
+      <c r="R35" s="76" t="str">
         <f>'needs help GPT4'!U15</f>
         <v>long</v>
       </c>
-      <c r="S35" s="65" t="str">
+      <c r="S35" s="8" t="str">
         <f>'needs help GPT4'!V15</f>
         <v>slow</v>
       </c>
-      <c r="T35" s="79" t="str">
+      <c r="T35" s="77" t="str">
         <f>'needs help GPT4'!W15</f>
         <v>shaky</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="14"/>
       <c r="C36" s="32" t="s">
         <v>36</v>
@@ -3282,27 +3460,27 @@
         <f>'needs help GPT3.5'!P16</f>
         <v>2</v>
       </c>
-      <c r="E36" s="65">
+      <c r="E36" s="8">
         <f>'needs help GPT3.5'!Q16</f>
         <v>72</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="8">
         <f>'needs help GPT3.5'!R16</f>
         <v>14</v>
       </c>
-      <c r="G36" s="65">
+      <c r="G36" s="8">
         <f>'needs help GPT3.5'!S16</f>
         <v>67</v>
       </c>
-      <c r="H36" s="65">
+      <c r="H36" s="8">
         <f>'needs help GPT3.5'!T16</f>
         <v>66</v>
       </c>
-      <c r="I36" s="65">
+      <c r="I36" s="8">
         <f>'needs help GPT3.5'!U16</f>
         <v>31</v>
       </c>
-      <c r="J36" s="65">
+      <c r="J36" s="8">
         <f>'needs help GPT3.5'!V16</f>
         <v>3</v>
       </c>
@@ -3310,32 +3488,31 @@
         <f>'needs help GPT3.5'!W16</f>
         <v>15</v>
       </c>
-      <c r="L36" s="67"/>
       <c r="M36" s="38">
         <f>'needs help GPT4'!P16</f>
         <v>79</v>
       </c>
-      <c r="N36" s="65">
+      <c r="N36" s="8">
         <f>'needs help GPT4'!Q16</f>
         <v>8</v>
       </c>
-      <c r="O36" s="65">
+      <c r="O36" s="8">
         <f>'needs help GPT4'!R16</f>
         <v>0</v>
       </c>
-      <c r="P36" s="65">
+      <c r="P36" s="8">
         <f>'needs help GPT4'!S16</f>
         <v>80</v>
       </c>
-      <c r="Q36" s="65">
+      <c r="Q36" s="8">
         <f>'needs help GPT4'!T16</f>
         <v>57</v>
       </c>
-      <c r="R36" s="65">
+      <c r="R36" s="8">
         <f>'needs help GPT4'!U16</f>
         <v>0</v>
       </c>
-      <c r="S36" s="65">
+      <c r="S36" s="8">
         <f>'needs help GPT4'!V16</f>
         <v>1</v>
       </c>
@@ -3345,7 +3522,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="14"/>
       <c r="C37" s="18" t="s">
         <v>37</v>
@@ -3354,27 +3531,27 @@
         <f>'needs help GPT3.5'!P17</f>
         <v>0</v>
       </c>
-      <c r="E37" s="65">
+      <c r="E37" s="8">
         <f>'needs help GPT3.5'!Q17</f>
         <v>7</v>
       </c>
-      <c r="F37" s="65">
+      <c r="F37" s="8">
         <f>'needs help GPT3.5'!R17</f>
         <v>66</v>
       </c>
-      <c r="G37" s="65">
+      <c r="G37" s="8">
         <f>'needs help GPT3.5'!S17</f>
         <v>2</v>
       </c>
-      <c r="H37" s="65">
+      <c r="H37" s="8">
         <f>'needs help GPT3.5'!T17</f>
         <v>13</v>
       </c>
-      <c r="I37" s="65">
+      <c r="I37" s="8">
         <f>'needs help GPT3.5'!U17</f>
         <v>14</v>
       </c>
-      <c r="J37" s="65">
+      <c r="J37" s="8">
         <f>'needs help GPT3.5'!V17</f>
         <v>0</v>
       </c>
@@ -3382,32 +3559,31 @@
         <f>'needs help GPT3.5'!W17</f>
         <v>28</v>
       </c>
-      <c r="L37" s="67"/>
       <c r="M37" s="38">
         <f>'needs help GPT4'!P17</f>
         <v>1</v>
       </c>
-      <c r="N37" s="65">
+      <c r="N37" s="8">
         <f>'needs help GPT4'!Q17</f>
         <v>65</v>
       </c>
-      <c r="O37" s="65">
+      <c r="O37" s="8">
         <f>'needs help GPT4'!R17</f>
         <v>0</v>
       </c>
-      <c r="P37" s="65">
+      <c r="P37" s="8">
         <f>'needs help GPT4'!S17</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="65">
+      <c r="Q37" s="8">
         <f>'needs help GPT4'!T17</f>
         <v>0</v>
       </c>
-      <c r="R37" s="65">
+      <c r="R37" s="8">
         <f>'needs help GPT4'!U17</f>
         <v>5</v>
       </c>
-      <c r="S37" s="65">
+      <c r="S37" s="8">
         <f>'needs help GPT4'!V17</f>
         <v>0</v>
       </c>
@@ -3417,7 +3593,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="86"/>
+      <c r="A38" s="82"/>
       <c r="B38" s="14"/>
       <c r="C38" s="33" t="s">
         <v>38</v>
@@ -3454,7 +3630,6 @@
         <f>'needs help GPT3.5'!W18</f>
         <v>0</v>
       </c>
-      <c r="L38" s="67"/>
       <c r="M38" s="40">
         <f>'needs help GPT4'!P18</f>
         <v>0</v>
@@ -3489,29 +3664,28 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="86"/>
+      <c r="A39" s="82"/>
       <c r="B39" s="12"/>
       <c r="C39" s="15"/>
       <c r="D39" s="38"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
       <c r="K39" s="39"/>
-      <c r="L39" s="67"/>
       <c r="M39" s="38"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="65"/>
-      <c r="S39" s="65"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
       <c r="T39" s="39"/>
     </row>
     <row r="40" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="109" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -3552,7 +3726,6 @@
         <f>'confused GPT3.5'!W13</f>
         <v>9</v>
       </c>
-      <c r="L40" s="67"/>
       <c r="M40" s="36">
         <f>'confused GPT4'!P13</f>
         <v>80</v>
@@ -3587,108 +3760,107 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="90"/>
+      <c r="A41" s="109"/>
       <c r="B41" s="12"/>
       <c r="C41" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="81">
+      <c r="D41" s="79">
         <f>'confused GPT3.5'!P14</f>
         <v>1</v>
       </c>
-      <c r="E41" s="82">
+      <c r="E41" s="80">
         <f>'confused GPT3.5'!Q14</f>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="F41" s="82">
+      <c r="F41" s="80">
         <f>'confused GPT3.5'!R14</f>
         <v>1</v>
       </c>
-      <c r="G41" s="82">
+      <c r="G41" s="80">
         <f>'confused GPT3.5'!S14</f>
         <v>1</v>
       </c>
-      <c r="H41" s="82">
+      <c r="H41" s="80">
         <f>'confused GPT3.5'!T14</f>
         <v>0.78749999999999998</v>
       </c>
-      <c r="I41" s="82">
+      <c r="I41" s="80">
         <f>'confused GPT3.5'!U14</f>
         <v>0.71250000000000002</v>
       </c>
-      <c r="J41" s="82">
+      <c r="J41" s="80">
         <f>'confused GPT3.5'!V14</f>
         <v>0.15</v>
       </c>
-      <c r="K41" s="83">
+      <c r="K41" s="81">
         <f>'confused GPT3.5'!W14</f>
         <v>0.1125</v>
       </c>
-      <c r="L41" s="67"/>
-      <c r="M41" s="81">
+      <c r="M41" s="79">
         <f>'confused GPT4'!P14</f>
         <v>1</v>
       </c>
-      <c r="N41" s="82">
+      <c r="N41" s="80">
         <f>'confused GPT4'!Q14</f>
         <v>0.15</v>
       </c>
-      <c r="O41" s="82">
+      <c r="O41" s="80">
         <f>'confused GPT4'!R14</f>
         <v>1</v>
       </c>
-      <c r="P41" s="82">
+      <c r="P41" s="80">
         <f>'confused GPT4'!S14</f>
         <v>0.9375</v>
       </c>
-      <c r="Q41" s="82">
+      <c r="Q41" s="80">
         <f>'confused GPT4'!T14</f>
         <v>0.58750000000000002</v>
       </c>
-      <c r="R41" s="82">
+      <c r="R41" s="80">
         <f>'confused GPT4'!U14</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="S41" s="82">
+      <c r="S41" s="80">
         <f>'confused GPT4'!V14</f>
         <v>0.96250000000000002</v>
       </c>
-      <c r="T41" s="83">
+      <c r="T41" s="81">
         <f>'confused GPT4'!W14</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="90"/>
+      <c r="A42" s="109"/>
       <c r="B42" s="12"/>
       <c r="C42" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="77" t="str">
+      <c r="D42" s="75" t="str">
         <f>'confused GPT3.5'!P15</f>
         <v>left</v>
       </c>
-      <c r="E42" s="65" t="str">
+      <c r="E42" s="8" t="str">
         <f>'confused GPT3.5'!Q15</f>
         <v>neutral</v>
       </c>
-      <c r="F42" s="78" t="str">
+      <c r="F42" s="76" t="str">
         <f>'confused GPT3.5'!R15</f>
         <v>neutral</v>
       </c>
-      <c r="G42" s="78" t="str">
+      <c r="G42" s="76" t="str">
         <f>'confused GPT3.5'!S15</f>
         <v>neutral</v>
       </c>
-      <c r="H42" s="78" t="str">
+      <c r="H42" s="76" t="str">
         <f>'confused GPT3.5'!T15</f>
         <v>user</v>
       </c>
-      <c r="I42" s="78" t="str">
+      <c r="I42" s="76" t="str">
         <f>'confused GPT3.5'!U15</f>
         <v>short</v>
       </c>
-      <c r="J42" s="65" t="str">
+      <c r="J42" s="8" t="str">
         <f>'confused GPT3.5'!V15</f>
         <v>slow</v>
       </c>
@@ -3696,36 +3868,35 @@
         <f>'confused GPT3.5'!W15</f>
         <v>smooth</v>
       </c>
-      <c r="L42" s="67"/>
-      <c r="M42" s="77" t="str">
+      <c r="M42" s="75" t="str">
         <f>'confused GPT4'!P15</f>
         <v>left</v>
       </c>
-      <c r="N42" s="65" t="str">
+      <c r="N42" s="8" t="str">
         <f>'confused GPT4'!Q15</f>
         <v>neutral</v>
       </c>
-      <c r="O42" s="78" t="str">
+      <c r="O42" s="76" t="str">
         <f>'confused GPT4'!R15</f>
         <v>neutral</v>
       </c>
-      <c r="P42" s="78" t="str">
+      <c r="P42" s="76" t="str">
         <f>'confused GPT4'!S15</f>
         <v>neutral</v>
       </c>
-      <c r="Q42" s="78" t="str">
+      <c r="Q42" s="76" t="str">
         <f>'confused GPT4'!T15</f>
         <v>user</v>
       </c>
-      <c r="R42" s="65" t="str">
+      <c r="R42" s="8" t="str">
         <f>'confused GPT4'!U15</f>
         <v>medium</v>
       </c>
-      <c r="S42" s="78" t="str">
+      <c r="S42" s="76" t="str">
         <f>'confused GPT4'!V15</f>
         <v>slow</v>
       </c>
-      <c r="T42" s="79" t="str">
+      <c r="T42" s="77" t="str">
         <f>'confused GPT4'!W15</f>
         <v>shaky</v>
       </c>
@@ -3740,27 +3911,27 @@
         <f>'confused GPT3.5'!P16</f>
         <v>59</v>
       </c>
-      <c r="E43" s="65">
+      <c r="E43" s="8">
         <f>'confused GPT3.5'!Q16</f>
         <v>0</v>
       </c>
-      <c r="F43" s="65">
+      <c r="F43" s="8">
         <f>'confused GPT3.5'!R16</f>
         <v>0</v>
       </c>
-      <c r="G43" s="65">
+      <c r="G43" s="8">
         <f>'confused GPT3.5'!S16</f>
         <v>0</v>
       </c>
-      <c r="H43" s="65">
+      <c r="H43" s="8">
         <f>'confused GPT3.5'!T16</f>
         <v>63</v>
       </c>
-      <c r="I43" s="65">
+      <c r="I43" s="8">
         <f>'confused GPT3.5'!U16</f>
         <v>51</v>
       </c>
-      <c r="J43" s="65">
+      <c r="J43" s="8">
         <f>'confused GPT3.5'!V16</f>
         <v>12</v>
       </c>
@@ -3768,32 +3939,31 @@
         <f>'confused GPT3.5'!W16</f>
         <v>9</v>
       </c>
-      <c r="L43" s="67"/>
       <c r="M43" s="38">
         <f>'confused GPT4'!P16</f>
         <v>77</v>
       </c>
-      <c r="N43" s="65">
+      <c r="N43" s="8">
         <f>'confused GPT4'!Q16</f>
         <v>5</v>
       </c>
-      <c r="O43" s="65">
+      <c r="O43" s="8">
         <f>'confused GPT4'!R16</f>
         <v>1</v>
       </c>
-      <c r="P43" s="65">
+      <c r="P43" s="8">
         <f>'confused GPT4'!S16</f>
         <v>1</v>
       </c>
-      <c r="Q43" s="65">
+      <c r="Q43" s="8">
         <f>'confused GPT4'!T16</f>
         <v>47</v>
       </c>
-      <c r="R43" s="65">
+      <c r="R43" s="8">
         <f>'confused GPT4'!U16</f>
         <v>0</v>
       </c>
-      <c r="S43" s="65">
+      <c r="S43" s="8">
         <f>'confused GPT4'!V16</f>
         <v>77</v>
       </c>
@@ -3812,27 +3982,27 @@
         <f>'confused GPT3.5'!P17</f>
         <v>21</v>
       </c>
-      <c r="E44" s="65">
+      <c r="E44" s="8">
         <f>'confused GPT3.5'!Q17</f>
         <v>7</v>
       </c>
-      <c r="F44" s="65">
+      <c r="F44" s="8">
         <f>'confused GPT3.5'!R17</f>
         <v>80</v>
       </c>
-      <c r="G44" s="65">
+      <c r="G44" s="8">
         <f>'confused GPT3.5'!S17</f>
         <v>41</v>
       </c>
-      <c r="H44" s="65">
+      <c r="H44" s="8">
         <f>'confused GPT3.5'!T17</f>
         <v>0</v>
       </c>
-      <c r="I44" s="65">
+      <c r="I44" s="8">
         <f>'confused GPT3.5'!U17</f>
         <v>6</v>
       </c>
-      <c r="J44" s="65">
+      <c r="J44" s="8">
         <f>'confused GPT3.5'!V17</f>
         <v>0</v>
       </c>
@@ -3840,32 +4010,31 @@
         <f>'confused GPT3.5'!W17</f>
         <v>0</v>
       </c>
-      <c r="L44" s="67"/>
       <c r="M44" s="38">
         <f>'confused GPT4'!P17</f>
         <v>3</v>
       </c>
-      <c r="N44" s="65">
+      <c r="N44" s="8">
         <f>'confused GPT4'!Q17</f>
         <v>7</v>
       </c>
-      <c r="O44" s="65">
+      <c r="O44" s="8">
         <f>'confused GPT4'!R17</f>
         <v>69</v>
       </c>
-      <c r="P44" s="65">
+      <c r="P44" s="8">
         <f>'confused GPT4'!S17</f>
         <v>73</v>
       </c>
-      <c r="Q44" s="65">
+      <c r="Q44" s="8">
         <f>'confused GPT4'!T17</f>
         <v>0</v>
       </c>
-      <c r="R44" s="65">
+      <c r="R44" s="8">
         <f>'confused GPT4'!U17</f>
         <v>3</v>
       </c>
-      <c r="S44" s="65">
+      <c r="S44" s="8">
         <f>'confused GPT4'!V17</f>
         <v>0</v>
       </c>
@@ -3912,7 +4081,7 @@
         <f>'confused GPT3.5'!W18</f>
         <v>0</v>
       </c>
-      <c r="L45" s="76"/>
+      <c r="L45" s="74"/>
       <c r="M45" s="40">
         <f>'confused GPT4'!P18</f>
         <v>0</v>
@@ -4234,6 +4403,355 @@
         <v>20</v>
       </c>
       <c r="T54" s="1"/>
+    </row>
+    <row r="64" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C65" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C66" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C67" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C68" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C69" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C70" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C71" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C72" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C73" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73" s="94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C74" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="J74" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C75" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="103" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4243,8 +4761,9 @@
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A40:A42"/>
   </mergeCells>
-  <conditionalFormatting sqref="D13:K13 M13:T13 M20:T20 D20:K20 D27:K27 M27:T27 M34:T34 D34:K34 D41:K41 M41:T41">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="D13:K13 M13:T13 D20:K20 M20:T20 D27:K27 M27:T27 D34:K34 M34:T34 D41:K41 M41:T41">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6738,7 +7257,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9439,7 +9958,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12212,7 +12731,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14874,7 +15393,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17545,7 +18064,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20075,7 +20594,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22605,7 +23124,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25375,7 +25894,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28034,7 +28553,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30738,7 +31257,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/llm_generated_data.xlsx
+++ b/data/llm_generated_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamroy/Documents/Studies/Monash_31194990/PHD/Studies/Study_03/LLM_motion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC9DF1A-83DB-A044-ADC8-A8BF739EE1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EDDE02-68E1-714A-AD87-3CB7145D3047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6207" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6323" uniqueCount="96">
   <si>
     <t>A</t>
   </si>
@@ -272,6 +272,66 @@
   <si>
     <t>RAND 11</t>
   </si>
+  <si>
+    <t>RAND 12</t>
+  </si>
+  <si>
+    <t>RAND 13</t>
+  </si>
+  <si>
+    <t>RAND 14</t>
+  </si>
+  <si>
+    <t>RAND 15</t>
+  </si>
+  <si>
+    <t>RAND 16</t>
+  </si>
+  <si>
+    <t>RAND 17</t>
+  </si>
+  <si>
+    <t>RAND 18</t>
+  </si>
+  <si>
+    <t>RAND 19</t>
+  </si>
+  <si>
+    <t>RAND 20</t>
+  </si>
+  <si>
+    <t>RAND 21</t>
+  </si>
+  <si>
+    <t>RAND 22</t>
+  </si>
+  <si>
+    <t>RAND 23</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
 </sst>
 </file>
 
@@ -353,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,12 +554,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
@@ -518,24 +572,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -868,37 +952,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -907,54 +961,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -962,7 +969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1198,69 +1205,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="25" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="26" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="27" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="25" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="26" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="27" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="26" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="25" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="26" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="28" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="28" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="28" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1279,12 +1223,283 @@
     <xf numFmtId="0" fontId="5" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="27" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="27" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="28" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="28" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="31" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="27" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="27" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="28" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="31" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="31" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="32" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE699"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE699"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE699"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1413,6 +1628,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EECB4937-66CC-6B44-86DF-B92CAAEE0AAB}" name="Table1" displayName="Table1" ref="D64:K88" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="D64:K88" xr:uid="{EECB4937-66CC-6B44-86DF-B92CAAEE0AAB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D65:K88">
+    <sortCondition ref="H64:H88"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{1F083374-3BDE-A947-81AB-9DC44AE6C77B}" name="Column1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C1AB28F3-BA1E-C74F-9FCE-0A45C8DA5DF8}" name="Column2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{E31F178B-8A96-404A-BE61-C8ED20BE656E}" name="Column3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{5E6338E3-42C2-DD4B-8216-048D90F03670}" name="Column4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{498F3FB5-FD3A-EE4A-A735-16A28AEF6D9A}" name="Column5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{A5C647D1-6E67-3D4C-9170-EB1B606C8F82}" name="Column6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{DA43E495-A73C-DA41-8615-B56656722858}" name="Column7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{9508CE8B-B9DC-454B-936E-0F4F88BD0344}" name="Column8" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1732,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T76"/>
+  <dimension ref="A2:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C63" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="B63" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1879,7 +2114,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="83" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1954,7 +2189,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="105"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="12"/>
       <c r="C13" s="21" t="s">
         <v>34</v>
@@ -2025,7 +2260,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="105"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="12"/>
       <c r="C14" s="21" t="s">
         <v>35</v>
@@ -2330,7 +2565,7 @@
       <c r="T18" s="39"/>
     </row>
     <row r="19" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="85" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -2406,7 +2641,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="12"/>
       <c r="C20" s="25" t="s">
         <v>34</v>
@@ -2477,7 +2712,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="106"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="12"/>
       <c r="C21" s="26" t="s">
         <v>35</v>
@@ -2783,7 +3018,7 @@
       <c r="T25" s="39"/>
     </row>
     <row r="26" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="107" t="s">
+      <c r="A26" s="86" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -2858,7 +3093,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="107"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="12"/>
       <c r="C27" s="29" t="s">
         <v>34</v>
@@ -2929,7 +3164,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="107"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="12"/>
       <c r="C28" s="30" t="s">
         <v>35</v>
@@ -3234,7 +3469,7 @@
       <c r="T32" s="39"/>
     </row>
     <row r="33" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="87" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -3309,7 +3544,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
+      <c r="A34" s="87"/>
       <c r="B34" s="12"/>
       <c r="C34" s="18" t="s">
         <v>34</v>
@@ -3380,7 +3615,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="108"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="12"/>
       <c r="C35" s="33" t="s">
         <v>35</v>
@@ -3685,7 +3920,7 @@
       <c r="T39" s="39"/>
     </row>
     <row r="40" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="109" t="s">
+      <c r="A40" s="88" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -3760,7 +3995,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="109"/>
+      <c r="A41" s="88"/>
       <c r="B41" s="12"/>
       <c r="C41" s="19" t="s">
         <v>34</v>
@@ -3831,7 +4066,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="109"/>
+      <c r="A42" s="88"/>
       <c r="B42" s="12"/>
       <c r="C42" s="35" t="s">
         <v>35</v>
@@ -4404,352 +4639,725 @@
       </c>
       <c r="T54" s="1"/>
     </row>
-    <row r="64" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="I64" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="J64" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="K64" s="90" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="65" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C65" s="83" t="s">
+      <c r="C65" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="89" t="s">
+      <c r="D65" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="89" t="s">
+      <c r="E65" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C66" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="90" t="s">
+      <c r="F66" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="G65" s="89" t="s">
+      <c r="G66" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="91" t="s">
+      <c r="H66" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="90" t="s">
+      <c r="I66" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C67" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C68" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="J65" s="89" t="s">
+      <c r="J68" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C69" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="92" t="s">
+      <c r="K69" s="110" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C66" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="97" t="s">
+    <row r="70" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C70" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="97" t="s">
+      <c r="E70" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C71" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C72" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="95" t="s">
+      <c r="F72" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C73" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="95" t="s">
+      <c r="F73" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H66" s="97" t="s">
+      <c r="H73" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73" s="108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C74" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74" s="109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C75" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C76" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" s="106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C77" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="I66" s="95" t="s">
+      <c r="I77" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C78" s="118" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C79" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="J66" s="95" t="s">
+      <c r="J79" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="K66" s="96" t="s">
+      <c r="K79" s="108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C80" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="K80" s="109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C81" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C82" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="106" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C67" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" s="87" t="s">
+    <row r="83" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C83" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" s="110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C84" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" s="109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C85" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="86" t="s">
+      <c r="G85" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C86" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C87" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="87" t="s">
+      <c r="F87" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="G67" s="86" t="s">
+      <c r="G87" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="86" t="s">
+      <c r="H87" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="I67" s="87" t="s">
+      <c r="I87" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="J67" s="87" t="s">
+      <c r="J87" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="K67" s="93" t="s">
+      <c r="K87" s="108" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C68" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" s="97" t="s">
+    <row r="88" spans="3:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="H68" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="95" t="s">
+      <c r="H88" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="J68" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="K68" s="99" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C69" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" s="94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C70" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="95" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="I70" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="J70" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="K70" s="96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C71" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="J71" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="K71" s="94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C72" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="95" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="95" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="I72" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="99" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C73" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="J73" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="K73" s="94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C74" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="95" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="95" t="s">
-        <v>8</v>
-      </c>
-      <c r="J74" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" s="99" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="3:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="C75" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="G75" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="I75" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="J75" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="K75" s="93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="3:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="J76" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76" s="103" t="s">
+      <c r="K88" s="117" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4763,12 +5371,15 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D13:K13 M13:T13 D20:K20 M20:T20 D27:K27 M27:T27 D34:K34 M34:T34 D41:K41 M41:T41">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -7257,7 +7868,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9958,7 +10569,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12731,7 +13342,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15393,7 +16004,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18064,7 +18675,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20594,7 +21205,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23124,7 +23735,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25894,7 +26505,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28553,7 +29164,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31257,7 +31868,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P14:W14 P22:W22 P43:W43 P50:W50">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
